--- a/Data Scraping/output.xlsx
+++ b/Data Scraping/output.xlsx
@@ -14,7 +14,6 @@
     <sheet name="Sheet_name6" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Sheet_name7" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Sheet_name8" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Sheet_name9" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -24705,3323 +24704,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:U49"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Outdoor Ambient Temperature</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>65°F</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>75°F</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>85°F 95°F</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>105°F</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>115°F</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Entering Indoor Wet Bulb Temperature</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>IDB*</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Airflow</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>59</v>
-      </c>
-      <c r="E5" t="n">
-        <v>63</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>71</v>
-      </c>
-      <c r="H5" t="n">
-        <v>59</v>
-      </c>
-      <c r="I5" t="n">
-        <v>63</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>71</v>
-      </c>
-      <c r="N5" t="n">
-        <v>59</v>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>63 67 71 59 63 67</t>
-        </is>
-      </c>
-      <c r="P5" t="n">
-        <v>71</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>59</v>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>63 67</t>
-        </is>
-      </c>
-      <c r="S5" t="n">
-        <v>71</v>
-      </c>
-      <c r="T5" t="n">
-        <v>59</v>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>63 67 71</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>MBh</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>53.6</v>
-      </c>
-      <c r="E6" t="n">
-        <v>54.4</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>56.0</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>58.4</v>
-      </c>
-      <c r="H6" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>53.9</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>55.5</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>57.9</v>
-      </c>
-      <c r="N6" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>52.5 54.1 56.5 49.3 50.1 51.7</t>
-        </is>
-      </c>
-      <c r="P6" t="n">
-        <v>54.1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>46.4</v>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>47.2 48.8</t>
-        </is>
-      </c>
-      <c r="S6" t="n">
-        <v>51.2</v>
-      </c>
-      <c r="T6" t="n">
-        <v>43.7</v>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>44.5 46.1 48.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>S/T</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0.78 0.65 0.51 1.00 0.80 0.67</t>
-        </is>
-      </c>
-      <c r="P7" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>1.00 0.69</t>
-        </is>
-      </c>
-      <c r="S7" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1</v>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>1.00 0.74 0.60</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>∆T</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>29</v>
-      </c>
-      <c r="E8" t="n">
-        <v>27</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>20</v>
-      </c>
-      <c r="H8" t="n">
-        <v>29</v>
-      </c>
-      <c r="I8" t="n">
-        <v>27</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>20</v>
-      </c>
-      <c r="N8" t="n">
-        <v>29</v>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>27 24 20 29 27 23</t>
-        </is>
-      </c>
-      <c r="P8" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>29</v>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>27 23</t>
-        </is>
-      </c>
-      <c r="S8" t="n">
-        <v>20</v>
-      </c>
-      <c r="T8" t="n">
-        <v>30</v>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>28 24 21</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1390 kW</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="E9" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="N9" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>4.04 4.03 4.06 4.55 4.55 4.54</t>
-        </is>
-      </c>
-      <c r="P9" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>5.12 5.11</t>
-        </is>
-      </c>
-      <c r="S9" t="n">
-        <v>5.14</v>
-      </c>
-      <c r="T9" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>5.79 5.78 5.81</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Amps</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E10" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>12.2</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="H10" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>14</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>14.0</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="N10" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>16.1 16.1 16.2 18.3 18.3 18.3</t>
-        </is>
-      </c>
-      <c r="P10" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>20.8 20.8</t>
-        </is>
-      </c>
-      <c r="S10" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="T10" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>23.7 23.7 23.8</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Hi PR</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>255</v>
-      </c>
-      <c r="E11" t="n">
-        <v>256</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>258</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>262</v>
-      </c>
-      <c r="H11" t="n">
-        <v>295</v>
-      </c>
-      <c r="I11" t="n">
-        <v>296</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>298</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>302</v>
-      </c>
-      <c r="N11" t="n">
-        <v>337</v>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>338 340 344 382 383 385</t>
-        </is>
-      </c>
-      <c r="P11" t="n">
-        <v>390</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>431</v>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>432 434</t>
-        </is>
-      </c>
-      <c r="S11" t="n">
-        <v>438</v>
-      </c>
-      <c r="T11" t="n">
-        <v>483</v>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>484 486 490</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Lo PR</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>120</v>
-      </c>
-      <c r="E12" t="n">
-        <v>122</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>125</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>130</v>
-      </c>
-      <c r="H12" t="n">
-        <v>127</v>
-      </c>
-      <c r="I12" t="n">
-        <v>129</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>132</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>137</v>
-      </c>
-      <c r="N12" t="n">
-        <v>134</v>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>135 138 144 139 141 144</t>
-        </is>
-      </c>
-      <c r="P12" t="n">
-        <v>149</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>145</v>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>146 149</t>
-        </is>
-      </c>
-      <c r="S12" t="n">
-        <v>154</v>
-      </c>
-      <c r="T12" t="n">
-        <v>151</v>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>153 156 161</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>MBh</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>54.4</v>
-      </c>
-      <c r="E13" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>56.8</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>59.2</v>
-      </c>
-      <c r="H13" t="n">
-        <v>53.9</v>
-      </c>
-      <c r="I13" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>56.3</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>58.7</v>
-      </c>
-      <c r="N13" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>53.3 54.9 57.3 50.2 50.9 52.5</t>
-        </is>
-      </c>
-      <c r="P13" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>48.0 49.6</t>
-        </is>
-      </c>
-      <c r="S13" t="n">
-        <v>52</v>
-      </c>
-      <c r="T13" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>45.3 46.9 49.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>S/T</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1</v>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>0.85 0.72 0.58 1.00 0.87 0.74</t>
-        </is>
-      </c>
-      <c r="P14" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>1.00 0.76</t>
-        </is>
-      </c>
-      <c r="S14" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1</v>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>1.00 0.81 0.67</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>∆T</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>28</v>
-      </c>
-      <c r="E15" t="n">
-        <v>26</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>19</v>
-      </c>
-      <c r="H15" t="n">
-        <v>28</v>
-      </c>
-      <c r="I15" t="n">
-        <v>26</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>18</v>
-      </c>
-      <c r="N15" t="n">
-        <v>28</v>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>26 22 19 27 26 22</t>
-        </is>
-      </c>
-      <c r="P15" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>27</v>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>25 22</t>
-        </is>
-      </c>
-      <c r="S15" t="n">
-        <v>18</v>
-      </c>
-      <c r="T15" t="n">
-        <v>28</v>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>27 23 19</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1630 kW</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="E16" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="H16" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="N16" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>4.06 4.05 4.09 4.58 4.57 4.57</t>
-        </is>
-      </c>
-      <c r="P16" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>5.14 5.14</t>
-        </is>
-      </c>
-      <c r="S16" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="T16" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>5.81 5.81 5.84</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Amps</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E17" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>12.3</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="H17" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>14.1</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="N17" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>16.2 16.2 16.3 18.4 18.4 18.4</t>
-        </is>
-      </c>
-      <c r="P17" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>20.9 20.9</t>
-        </is>
-      </c>
-      <c r="S17" t="n">
-        <v>21</v>
-      </c>
-      <c r="T17" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>23.8 23.8 23.9</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Hi PR</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>257</v>
-      </c>
-      <c r="E18" t="n">
-        <v>258</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>260</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>265</v>
-      </c>
-      <c r="H18" t="n">
-        <v>297</v>
-      </c>
-      <c r="I18" t="n">
-        <v>299</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>305</v>
-      </c>
-      <c r="N18" t="n">
-        <v>339</v>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>341 342 347 385 386 388</t>
-        </is>
-      </c>
-      <c r="P18" t="n">
-        <v>392</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>434</v>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>435 437</t>
-        </is>
-      </c>
-      <c r="S18" t="n">
-        <v>441</v>
-      </c>
-      <c r="T18" t="n">
-        <v>486</v>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>487 489 493</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Lo PR</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>122</v>
-      </c>
-      <c r="E19" t="n">
-        <v>124</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>127</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>132</v>
-      </c>
-      <c r="H19" t="n">
-        <v>130</v>
-      </c>
-      <c r="I19" t="n">
-        <v>131</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>139</v>
-      </c>
-      <c r="N19" t="n">
-        <v>136</v>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>137 140 146 141 143 146</t>
-        </is>
-      </c>
-      <c r="P19" t="n">
-        <v>151</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>147</v>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>148 151</t>
-        </is>
-      </c>
-      <c r="S19" t="n">
-        <v>156</v>
-      </c>
-      <c r="T19" t="n">
-        <v>153</v>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>155 158 163</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>MBh</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>55.4</v>
-      </c>
-      <c r="E20" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>57.8</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>60.2</v>
-      </c>
-      <c r="H20" t="n">
-        <v>55</v>
-      </c>
-      <c r="I20" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>57.3</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>59.7</v>
-      </c>
-      <c r="N20" t="n">
-        <v>53.6</v>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>54.3 55.9 58.3 51.2 51.9 53.5</t>
-        </is>
-      </c>
-      <c r="P20" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>49.0 50.6</t>
-        </is>
-      </c>
-      <c r="S20" t="n">
-        <v>53</v>
-      </c>
-      <c r="T20" t="n">
-        <v>45.5</v>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>46.3 47.9 50.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>S/T</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1</v>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>0.89 0.76 0.62 1.00 0.91 0.78</t>
-        </is>
-      </c>
-      <c r="P21" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1</v>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>1.00 0.80</t>
-        </is>
-      </c>
-      <c r="S21" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1</v>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>1.00 0.85 0.71</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>∆T</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>26</v>
-      </c>
-      <c r="E22" t="n">
-        <v>25</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>17</v>
-      </c>
-      <c r="H22" t="n">
-        <v>26</v>
-      </c>
-      <c r="I22" t="n">
-        <v>25</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>17</v>
-      </c>
-      <c r="N22" t="n">
-        <v>27</v>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>25 21 18 26 24 21</t>
-        </is>
-      </c>
-      <c r="P22" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>26</v>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>24 21</t>
-        </is>
-      </c>
-      <c r="S22" t="n">
-        <v>17</v>
-      </c>
-      <c r="T22" t="n">
-        <v>27</v>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>25 22 18</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>1870 kW</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="E23" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="H23" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="I23" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="N23" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>4.08 4.08 4.11 4.60 4.59 4.59</t>
-        </is>
-      </c>
-      <c r="P23" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>5.16 5.16</t>
-        </is>
-      </c>
-      <c r="S23" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="T23" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>5.83 5.83 5.86</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Amps</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E24" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>12.4</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="H24" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="I24" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>14.2</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="N24" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>16.3 16.3 16.4 18.5 18.5 18.5</t>
-        </is>
-      </c>
-      <c r="P24" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>21</v>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>21.0 21.0</t>
-        </is>
-      </c>
-      <c r="S24" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="T24" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>23.9 23.9 24.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Hi PR</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>260</v>
-      </c>
-      <c r="E25" t="n">
-        <v>261</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>263</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>267</v>
-      </c>
-      <c r="H25" t="n">
-        <v>300</v>
-      </c>
-      <c r="I25" t="n">
-        <v>301</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>303</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>307</v>
-      </c>
-      <c r="N25" t="n">
-        <v>342</v>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>343 345 349 387 388 390</t>
-        </is>
-      </c>
-      <c r="P25" t="n">
-        <v>395</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>436</v>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>437 439</t>
-        </is>
-      </c>
-      <c r="S25" t="n">
-        <v>443</v>
-      </c>
-      <c r="T25" t="n">
-        <v>488</v>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>489 491 496</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Lo PR</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>125</v>
-      </c>
-      <c r="E26" t="n">
-        <v>126</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>129</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>134</v>
-      </c>
-      <c r="H26" t="n">
-        <v>132</v>
-      </c>
-      <c r="I26" t="n">
-        <v>133</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>136</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>142</v>
-      </c>
-      <c r="N26" t="n">
-        <v>138</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>140 143 148 144 145 148</t>
-        </is>
-      </c>
-      <c r="P26" t="n">
-        <v>153</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>149</v>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>150 153</t>
-        </is>
-      </c>
-      <c r="S26" t="n">
-        <v>159</v>
-      </c>
-      <c r="T26" t="n">
-        <v>156</v>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>157 160 165</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>MBh</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>54.5</v>
-      </c>
-      <c r="E27" t="n">
-        <v>55.3</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>56.9</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>59.3</v>
-      </c>
-      <c r="H27" t="n">
-        <v>54</v>
-      </c>
-      <c r="I27" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>56.4</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>58.8</v>
-      </c>
-      <c r="N27" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>53.4 55.0 57.4 50.2 51.0 52.6</t>
-        </is>
-      </c>
-      <c r="P27" t="n">
-        <v>55</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>48.1 49.7</t>
-        </is>
-      </c>
-      <c r="S27" t="n">
-        <v>52.1</v>
-      </c>
-      <c r="T27" t="n">
-        <v>44.6</v>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>45.4 47.0 49.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>S/T</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="N28" t="n">
-        <v>1</v>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>1.00 0.75 0.61 1.00 1.00 0.77</t>
-        </is>
-      </c>
-      <c r="P28" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1</v>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>1.00 0.79</t>
-        </is>
-      </c>
-      <c r="S28" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1</v>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>1.00 0.84 0.70</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>∆T</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>33</v>
-      </c>
-      <c r="E29" t="n">
-        <v>31</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>24</v>
-      </c>
-      <c r="H29" t="n">
-        <v>33</v>
-      </c>
-      <c r="I29" t="n">
-        <v>31</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>24</v>
-      </c>
-      <c r="N29" t="n">
-        <v>33</v>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>31 27 24 33 31 27</t>
-        </is>
-      </c>
-      <c r="P29" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>32</v>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>30 27</t>
-        </is>
-      </c>
-      <c r="S29" t="n">
-        <v>23</v>
-      </c>
-      <c r="T29" t="n">
-        <v>33</v>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>32 28 24</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>1390 kW</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="E30" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="H30" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="I30" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="N30" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>4.04 4.04 4.07 4.56 4.55 4.55</t>
-        </is>
-      </c>
-      <c r="P30" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>5.13</v>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>5.13 5.12</t>
-        </is>
-      </c>
-      <c r="S30" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="T30" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>5.79 5.79 5.82</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Amps</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E31" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>12.2</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="H31" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>14.0</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="N31" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>16.1 16.1 16.2 18.4 18.4 18.3</t>
-        </is>
-      </c>
-      <c r="P31" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>20.8 20.8</t>
-        </is>
-      </c>
-      <c r="S31" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="T31" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>23.7 23.7 23.9</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Hi PR</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>256</v>
-      </c>
-      <c r="E32" t="n">
-        <v>257</v>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>259</t>
-        </is>
-      </c>
-      <c r="G32" t="n">
-        <v>263</v>
-      </c>
-      <c r="H32" t="n">
-        <v>296</v>
-      </c>
-      <c r="I32" t="n">
-        <v>297</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>299</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>303</v>
-      </c>
-      <c r="N32" t="n">
-        <v>338</v>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>339 341 345 383 385 386</t>
-        </is>
-      </c>
-      <c r="P32" t="n">
-        <v>391</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>432</v>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>433 435</t>
-        </is>
-      </c>
-      <c r="S32" t="n">
-        <v>440</v>
-      </c>
-      <c r="T32" t="n">
-        <v>484</v>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>485 487 492</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Lo PR</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>122</v>
-      </c>
-      <c r="E33" t="n">
-        <v>123</v>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>127</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
-        <v>132</v>
-      </c>
-      <c r="H33" t="n">
-        <v>129</v>
-      </c>
-      <c r="I33" t="n">
-        <v>131</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>139</v>
-      </c>
-      <c r="N33" t="n">
-        <v>136</v>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>137 140 145 141 143 146</t>
-        </is>
-      </c>
-      <c r="P33" t="n">
-        <v>151</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>146</v>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>148 151</t>
-        </is>
-      </c>
-      <c r="S33" t="n">
-        <v>156</v>
-      </c>
-      <c r="T33" t="n">
-        <v>153</v>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>154 158 163</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>MBh</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>55.3</v>
-      </c>
-      <c r="E34" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>57.7</t>
-        </is>
-      </c>
-      <c r="G34" t="n">
-        <v>60.1</v>
-      </c>
-      <c r="H34" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="I34" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>57.2</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>59.6</v>
-      </c>
-      <c r="N34" t="n">
-        <v>53.4</v>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>54.2 55.8 58.2 51.1 51.8 53.4</t>
-        </is>
-      </c>
-      <c r="P34" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>48.9 50.5</t>
-        </is>
-      </c>
-      <c r="S34" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="T34" t="n">
-        <v>45.4</v>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>46.2 47.8 50.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>S/T</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="G35" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="N35" t="n">
-        <v>1</v>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>1.00 0.82 0.68 1.00 1.00 0.84</t>
-        </is>
-      </c>
-      <c r="P35" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1</v>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>1.00 0.86</t>
-        </is>
-      </c>
-      <c r="S35" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="T35" t="n">
-        <v>1</v>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>1.00 1.00 0.77</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>∆T</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>31</v>
-      </c>
-      <c r="E36" t="n">
-        <v>29</v>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="G36" t="n">
-        <v>22</v>
-      </c>
-      <c r="H36" t="n">
-        <v>31</v>
-      </c>
-      <c r="I36" t="n">
-        <v>29</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>22</v>
-      </c>
-      <c r="N36" t="n">
-        <v>31</v>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>30 26 22 31 29 26</t>
-        </is>
-      </c>
-      <c r="P36" t="n">
-        <v>22</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>31</v>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>29 26</t>
-        </is>
-      </c>
-      <c r="S36" t="n">
-        <v>22</v>
-      </c>
-      <c r="T36" t="n">
-        <v>32</v>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>30 27 23</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>1630 kW</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="E37" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H37" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I37" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="N37" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>4.07 4.06 4.10 4.58 4.58 4.57</t>
-        </is>
-      </c>
-      <c r="P37" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>5.15 5.14</t>
-        </is>
-      </c>
-      <c r="S37" t="n">
-        <v>5.18</v>
-      </c>
-      <c r="T37" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>5.82 5.81 5.85</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Amps</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E38" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>12.3</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="H38" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="I38" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>14.2</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="N38" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>16.2 16.2 16.4 18.5 18.5 18.4</t>
-        </is>
-      </c>
-      <c r="P38" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>21</v>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>20.9 20.9</t>
-        </is>
-      </c>
-      <c r="S38" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="T38" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>23.9 23.8 24.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Hi PR</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>258</v>
-      </c>
-      <c r="E39" t="n">
-        <v>260</v>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>261</t>
-        </is>
-      </c>
-      <c r="G39" t="n">
-        <v>266</v>
-      </c>
-      <c r="H39" t="n">
-        <v>299</v>
-      </c>
-      <c r="I39" t="n">
-        <v>300</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>302</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>306</v>
-      </c>
-      <c r="N39" t="n">
-        <v>341</v>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>342 344 348 386 387 389</t>
-        </is>
-      </c>
-      <c r="P39" t="n">
-        <v>393</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>435</v>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>436 438</t>
-        </is>
-      </c>
-      <c r="S39" t="n">
-        <v>442</v>
-      </c>
-      <c r="T39" t="n">
-        <v>487</v>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>488 490 494</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Lo PR</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>124</v>
-      </c>
-      <c r="E40" t="n">
-        <v>126</v>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>129</t>
-        </is>
-      </c>
-      <c r="G40" t="n">
-        <v>134</v>
-      </c>
-      <c r="H40" t="n">
-        <v>131</v>
-      </c>
-      <c r="I40" t="n">
-        <v>133</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>136</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>141</v>
-      </c>
-      <c r="N40" t="n">
-        <v>138</v>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>139 142 147 143 145 148</t>
-        </is>
-      </c>
-      <c r="P40" t="n">
-        <v>153</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>148</v>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>150 153</t>
-        </is>
-      </c>
-      <c r="S40" t="n">
-        <v>158</v>
-      </c>
-      <c r="T40" t="n">
-        <v>155</v>
-      </c>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>157 160 165</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>MBh</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>56.3</v>
-      </c>
-      <c r="E41" t="n">
-        <v>57.1</v>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>58.7</t>
-        </is>
-      </c>
-      <c r="G41" t="n">
-        <v>61.1</v>
-      </c>
-      <c r="H41" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="I41" t="n">
-        <v>56.6</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>58.2</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>60.6</v>
-      </c>
-      <c r="N41" t="n">
-        <v>54.5</v>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>55.2 56.8 59.2 52.1 52.8 54.4</t>
-        </is>
-      </c>
-      <c r="P41" t="n">
-        <v>56.8</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>49.1</v>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>49.9 51.5</t>
-        </is>
-      </c>
-      <c r="S41" t="n">
-        <v>53.9</v>
-      </c>
-      <c r="T41" t="n">
-        <v>46.4</v>
-      </c>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>47.2 48.8 51.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>S/T</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="G42" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="N42" t="n">
-        <v>1</v>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>1.00 0.86 0.72 1.00 1.00 0.88</t>
-        </is>
-      </c>
-      <c r="P42" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>1</v>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>1.00 0.90</t>
-        </is>
-      </c>
-      <c r="S42" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="T42" t="n">
-        <v>1</v>
-      </c>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>1.00 1.00 0.81</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>∆T</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>30</v>
-      </c>
-      <c r="E43" t="n">
-        <v>28</v>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="G43" t="n">
-        <v>21</v>
-      </c>
-      <c r="H43" t="n">
-        <v>30</v>
-      </c>
-      <c r="I43" t="n">
-        <v>28</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>21</v>
-      </c>
-      <c r="N43" t="n">
-        <v>30</v>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>28 25 21 30 28 25</t>
-        </is>
-      </c>
-      <c r="P43" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>30</v>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>28 24</t>
-        </is>
-      </c>
-      <c r="S43" t="n">
-        <v>21</v>
-      </c>
-      <c r="T43" t="n">
-        <v>31</v>
-      </c>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>29 26 22</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>1870 kW</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="E44" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G44" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="H44" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="I44" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="N44" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>4.09 4.08 4.12 4.61 4.60 4.60</t>
-        </is>
-      </c>
-      <c r="P44" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>5.18</v>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>5.17 5.17</t>
-        </is>
-      </c>
-      <c r="S44" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="T44" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>5.84 5.84 5.87</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Amps</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E45" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>12.4</t>
-        </is>
-      </c>
-      <c r="G45" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="H45" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="I45" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>14.3</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="N45" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>16.3 16.3 16.4 18.6 18.6 18.5</t>
-        </is>
-      </c>
-      <c r="P45" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>21.0 21.0</t>
-        </is>
-      </c>
-      <c r="S45" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="T45" t="n">
-        <v>24</v>
-      </c>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>24.0 23.9 24.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Hi PR</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>261</v>
-      </c>
-      <c r="E46" t="n">
-        <v>262</v>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>264</t>
-        </is>
-      </c>
-      <c r="G46" t="n">
-        <v>268</v>
-      </c>
-      <c r="H46" t="n">
-        <v>301</v>
-      </c>
-      <c r="I46" t="n">
-        <v>302</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>304</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>308</v>
-      </c>
-      <c r="N46" t="n">
-        <v>343</v>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>344 346 350 388 390 391</t>
-        </is>
-      </c>
-      <c r="P46" t="n">
-        <v>396</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>437</v>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>438 440</t>
-        </is>
-      </c>
-      <c r="S46" t="n">
-        <v>445</v>
-      </c>
-      <c r="T46" t="n">
-        <v>489</v>
-      </c>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>491 492 497</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Lo PR</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>126</v>
-      </c>
-      <c r="E47" t="n">
-        <v>128</v>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
-      </c>
-      <c r="G47" t="n">
-        <v>136</v>
-      </c>
-      <c r="H47" t="n">
-        <v>134</v>
-      </c>
-      <c r="I47" t="n">
-        <v>135</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>138</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>143</v>
-      </c>
-      <c r="N47" t="n">
-        <v>140</v>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>142 145 150 145 147 150</t>
-        </is>
-      </c>
-      <c r="P47" t="n">
-        <v>155</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>151</v>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>152 155</t>
-        </is>
-      </c>
-      <c r="S47" t="n">
-        <v>160</v>
-      </c>
-      <c r="T47" t="n">
-        <v>157</v>
-      </c>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>159 162 167</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>IDB*: Entering Indoor Dry Bulb Temperature</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>Shaded area reflects AHRI conditions</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>kW = Total system power</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>High and low pressures are measured at the liquid and suction service valves.</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>Amps = outdoor unit amps</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>